--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol - Copy\RAPAT ANCOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\RAPAT ANCOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="9 Sept 2015" sheetId="1" r:id="rId1"/>
     <sheet name="1 okt 2015" sheetId="2" r:id="rId2"/>
+    <sheet name="16 OKTOBER 2015" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -190,6 +191,147 @@
   </si>
   <si>
     <t>MASTER STOK UPDATE EXCEL</t>
+  </si>
+  <si>
+    <t>BOOKING FEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANGGAL RENCANA </t>
+  </si>
+  <si>
+    <t>14 HARI KERJA SETELAH BOOKING FEE</t>
+  </si>
+  <si>
+    <t>ATAU TENTUKAN TANGGAL</t>
+  </si>
+  <si>
+    <t>RENCANA</t>
+  </si>
+  <si>
+    <t>MUNCUL DI ANGSURAN 1</t>
+  </si>
+  <si>
+    <t>MENGURANGI ANGSURAN 1</t>
+  </si>
+  <si>
+    <t>PENGISIAN TTS</t>
+  </si>
+  <si>
+    <t>OTOMATIS DICARI DAN DIISI DENGAN KODE BLOK YANG TERJUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANDA TERIMA DAN KUITANSI </t>
+  </si>
+  <si>
+    <t>TIDAK ADA TANDA TANGAN PEMBELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMAT PIUTANG SAMAIN AR </t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>DIILANGIN PT GRAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP </t>
+  </si>
+  <si>
+    <t>TAMBAHIN SALES, GM PROPERTI 1, GM SALES</t>
+  </si>
+  <si>
+    <t>ALAMAT NPWP</t>
+  </si>
+  <si>
+    <t>DIHAPUS</t>
+  </si>
+  <si>
+    <t>ALAMAT RUMAH</t>
+  </si>
+  <si>
+    <t>CEKLIS -&gt; NGISI ALAMAT KORESPODENSI</t>
+  </si>
+  <si>
+    <t>ENTRI MANUAL</t>
+  </si>
+  <si>
+    <t>SALES, GM PROPERTI 1, GM SALES</t>
+  </si>
+  <si>
+    <t>2000000 ATAU ISI MANUAL</t>
+  </si>
+  <si>
+    <t>NILAI BOOKING FEE MASUK KE SP</t>
+  </si>
+  <si>
+    <t>LIHAT EXCEL AR CONDO TAB AR</t>
+  </si>
+  <si>
+    <t>JIKA CB36X</t>
+  </si>
+  <si>
+    <t>BALOON PAYMENT : PAKE RUMUS 5% UTK 1O BULAN, 15% UTK 12 BLN, 10% UTK 14 BLN, 70% SISANYA</t>
+  </si>
+  <si>
+    <t>MODUL</t>
+  </si>
+  <si>
+    <t>INPUTAN OTOMATIS CAPSLOK</t>
+  </si>
+  <si>
+    <t>POSISI UNIT TERJUAL</t>
+  </si>
+  <si>
+    <t>DIPAKE BUTTON UNTUK REFRESH</t>
+  </si>
+  <si>
+    <t>FORM PENJUALAN</t>
+  </si>
+  <si>
+    <t>BGB, REFERAL, MEMBER</t>
+  </si>
+  <si>
+    <t>172.16.32.42</t>
+  </si>
+  <si>
+    <t>10.8.12.111</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>4nc0l123!</t>
+  </si>
+  <si>
+    <t>PROPERTI-SALES</t>
+  </si>
+  <si>
+    <t>DAFTAR SPP</t>
+  </si>
+  <si>
+    <t>MASIH ADA LUAS TANAH</t>
+  </si>
+  <si>
+    <t>PPJB</t>
+  </si>
+  <si>
+    <t>TOTAL HARGA BELUM TO MONEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUITANSI PENJUALAN </t>
+  </si>
+  <si>
+    <t>POP UP DILEBARIN</t>
+  </si>
+  <si>
+    <t>CETAK KARTU PEMBELI</t>
+  </si>
+  <si>
+    <t>POP UP EROR</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -253,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -271,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,6 +435,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C24" totalsRowShown="0">
+  <autoFilter ref="A2:C24"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MODUL"/>
+    <tableColumn id="2" name="KETERANGAN"/>
+    <tableColumn id="3" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,20 +727,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -853,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -866,20 +1023,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1117,4 +1274,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -1281,7 +1281,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,6 +1368,9 @@
       <c r="B9" t="s">
         <v>63</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="9 Sept 2015" sheetId="1" r:id="rId1"/>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\RAPAT ANCOL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="9 Sept 2015" sheetId="1" r:id="rId1"/>
     <sheet name="1 okt 2015" sheetId="2" r:id="rId2"/>
     <sheet name="16 OKTOBER 2015" sheetId="3" r:id="rId3"/>
+    <sheet name="5 November 2015" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -332,12 +329,18 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Rncana Realisasi</t>
+  </si>
+  <si>
+    <t>Tampilan masih suka berbeda-beda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,6 +452,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:C24" totalsRowShown="0">
+  <autoFilter ref="A2:C24"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MODUL"/>
+    <tableColumn id="2" name="KETERANGAN"/>
+    <tableColumn id="3" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -492,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,4 +1519,79 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\RAPAT ANCOL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -335,12 +340,72 @@
   </si>
   <si>
     <t>Tampilan masih suka berbeda-beda</t>
+  </si>
+  <si>
+    <t>UMUR PIUTANG</t>
+  </si>
+  <si>
+    <t>0 TO 30</t>
+  </si>
+  <si>
+    <t>CASH IN</t>
+  </si>
+  <si>
+    <t>MASIH NGEBUG</t>
+  </si>
+  <si>
+    <t>NO TELP</t>
+  </si>
+  <si>
+    <t>FORMAT SURAT</t>
+  </si>
+  <si>
+    <t>DAFTAR KUITANSI</t>
+  </si>
+  <si>
+    <t>JUDUL PERBAIKI</t>
+  </si>
+  <si>
+    <t>MANUAL BOOK</t>
+  </si>
+  <si>
+    <t>SCREEN SHOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAK AKSES </t>
+  </si>
+  <si>
+    <t>HAK AKSES PER MODUL</t>
+  </si>
+  <si>
+    <t>COLLECTION</t>
+  </si>
+  <si>
+    <t>BELUM DI CEK (PENAGIHAN , PERHITUNGAN DENDA, CREATE TAGIHAN)</t>
+  </si>
+  <si>
+    <t>NAMA PEJABAT, PEJABAT PPJB</t>
+  </si>
+  <si>
+    <t>UBAH DIDATABASE</t>
+  </si>
+  <si>
+    <t>MENU KARTU PEMBELI</t>
+  </si>
+  <si>
+    <t>HAPUS</t>
+  </si>
+  <si>
+    <t>MENU RENCANA REALISASI SELURUH BLOK</t>
+  </si>
+  <si>
+    <t>OTW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,13 +1591,13 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1564,13 +1629,106 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
       <c r="E5" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\RAPAT ANCOL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="7695" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="9 Sept 2015" sheetId="1" r:id="rId1"/>
     <sheet name="1 okt 2015" sheetId="2" r:id="rId2"/>
     <sheet name="16 OKTOBER 2015" sheetId="3" r:id="rId3"/>
     <sheet name="5 November 2015" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="19 November 2015" sheetId="6" r:id="rId5"/>
+    <sheet name="25 November 2015" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -336,9 +333,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>Rncana Realisasi</t>
-  </si>
-  <si>
     <t>Tampilan masih suka berbeda-beda</t>
   </si>
   <si>
@@ -400,12 +394,126 @@
   </si>
   <si>
     <t>OTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Penambahan Pola pembayaran</t>
+  </si>
+  <si>
+    <t>Cash Keras, CB12x, CB24x, CB36x, CB48x, KPA36x, KPA36x(Baloon Payment)</t>
+  </si>
+  <si>
+    <t>Menu Utilitas</t>
+  </si>
+  <si>
+    <t>Penambahan menu untuk manual book</t>
+  </si>
+  <si>
+    <t>Komunikasi alur data dengan orlansoft menuju tabel temporary</t>
+  </si>
+  <si>
+    <t>Verifikasi data</t>
+  </si>
+  <si>
+    <t>SMS Gateway/Email</t>
+  </si>
+  <si>
+    <t>PAIJB/PPJB</t>
+  </si>
+  <si>
+    <t>Nilainya lebih besar sama dengan</t>
+  </si>
+  <si>
+    <t>Data Stok</t>
+  </si>
+  <si>
+    <t>Informasi upload data stok</t>
+  </si>
+  <si>
+    <t>Agent &amp; Salles</t>
+  </si>
+  <si>
+    <t>Penambahan data no tlp, npwp, ktp, email</t>
+  </si>
+  <si>
+    <t>Baloon Payment</t>
+  </si>
+  <si>
+    <t>Total harga - Tanda jadi dibagi tiap bulan sesuai perhiungan baloon</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>Nomor kwitansi</t>
+  </si>
+  <si>
+    <t>Nomor kwitansi pada saat setelah cetak tanda terima jangan dulu ada, tetapi revert dari orlansoft</t>
+  </si>
+  <si>
+    <t>Sebelum otorisasi sebaiknya diberikan notifikasi kalau belum didistribusikan</t>
+  </si>
+  <si>
+    <t>Format Nomor kwitansi</t>
+  </si>
+  <si>
+    <t>Format nomor kwitansi dari orlansoft sebanyak 13 digit</t>
+  </si>
+  <si>
+    <t>PPJB/PAIJB</t>
+  </si>
+  <si>
+    <t>persentase pengalihan hak bisa dihilangkan</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menu untuk marketing =&gt; Home, Marketing, PPJB dan Utilitas. Supervisor market tambah master untuk upload stok dll.</t>
+  </si>
+  <si>
+    <t>Booking fee default 25.0000</t>
+  </si>
+  <si>
+    <t>Faktur pajak</t>
+  </si>
+  <si>
+    <t>Faktur pajak dihilangkan saja</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Report untuk accounting</t>
+  </si>
+  <si>
+    <t>Customer id</t>
+  </si>
+  <si>
+    <t>Penambahan customer id dalam report untuk accounting</t>
+  </si>
+  <si>
+    <t>Sortir pilihan pembayaran</t>
+  </si>
+  <si>
+    <t>Sortir pilihan pembayaran pada jenis pembayaran dalam kwitansi</t>
+  </si>
+  <si>
+    <t>Kwitansi kelebihan</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rencana Realisasi</t>
+  </si>
+  <si>
+    <t>Sebagai notifikasi kepada cunsomen apabila waktunya untuk membayar atau telat bayar berupa somasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,6 +627,30 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:C24" totalsRowShown="0">
+  <autoFilter ref="A2:C24"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MODUL"/>
+    <tableColumn id="2" name="KETERANGAN"/>
+    <tableColumn id="3" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:C24" totalsRowShown="0">
+  <autoFilter ref="A2:C24"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MODUL"/>
+    <tableColumn id="2" name="KETERANGAN"/>
+    <tableColumn id="3" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A2:C24" totalsRowShown="0">
   <autoFilter ref="A2:C24"/>
   <tableColumns count="3">
     <tableColumn id="1" name="MODUL"/>
@@ -784,7 +916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1590,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,10 +1745,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
@@ -1630,10 +1762,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>89</v>
@@ -1641,13 +1773,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
@@ -1658,7 +1790,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,55 +1798,55 @@
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
         <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
         <v>114</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
         <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1722,10 +1854,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
         <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1744,6 +1876,280 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\RAPAT ANCOL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="7695" firstSheet="4" activeTab="5"/>
   </bookViews>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="161">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -513,7 +518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1954,7 +1959,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,24 +2105,33 @@
       <c r="B16" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -2125,19 +2139,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
     </row>
   </sheetData>

--- a/RAPAT ANCOL/NOTULENSI.xlsx
+++ b/RAPAT ANCOL/NOTULENSI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="165">
   <si>
     <t xml:space="preserve">   FORMAT : CEKLIS PEMBAYARAN, </t>
   </si>
@@ -513,6 +513,18 @@
   </si>
   <si>
     <t>Sebagai notifikasi kepada cunsomen apabila waktunya untuk membayar atau telat bayar berupa somasi</t>
+  </si>
+  <si>
+    <t>akunting</t>
+  </si>
+  <si>
+    <t>sortir per blok atau nama</t>
+  </si>
+  <si>
+    <t>TIDAK BISA</t>
+  </si>
+  <si>
+    <t>CD 3, DATABASE, DOKUMEN, APLIKASI</t>
   </si>
 </sst>
 </file>
@@ -709,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1958,14 +1970,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2138,11 +2151,22 @@
       <c r="B19" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
